--- a/analysis/files/BERT glue benchmark.xlsx
+++ b/analysis/files/BERT glue benchmark.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Baseline</t>
   </si>
@@ -52,36 +52,45 @@
     <t>qqp-l10-wr2-fw1-epoch8</t>
   </si>
   <si>
+    <t>qqp-l15-wr2-fw1-epoch12</t>
+  </si>
+  <si>
+    <t>qqp-l20-wr2-fw1-epoch12</t>
+  </si>
+  <si>
+    <t>qqp-l1-wr2-fw1-epoch10-teach09 (epoch 3)</t>
+  </si>
+  <si>
+    <t>qqp-l1-wr2-fw1-epoch10-teach09 (epoch 4)</t>
+  </si>
+  <si>
+    <t>qqp-l1-wr2-fw1-epoch10-teach09 (epoch 5)</t>
+  </si>
+  <si>
+    <t>qqp-l1-wr2-fw1-epoch10-teach09</t>
+  </si>
+  <si>
+    <t>qqp-l2-wr2-fw1-epoch10-teach09</t>
+  </si>
+  <si>
+    <t>qqp-l5-wr2-fw1-epoch12-teach09 (epoch 7)</t>
+  </si>
+  <si>
+    <t>qqp-l5-wr2-fw1-epoch12-teach09</t>
+  </si>
+  <si>
+    <t>qqp-l10-wr2-fw1-epoch12-teach09</t>
+  </si>
+  <si>
+    <t>qqp-l15-wr2-fw1-epoch12-teach09 (epoch 11)</t>
+  </si>
+  <si>
+    <t>qqp-l15-wr2-fw1-epoch12-teach09 (epoch 12)</t>
+  </si>
+  <si>
     <t>bartbasetestqqp-a32-l20-dl1-wr8-fw2-epoch10-teach09</t>
   </si>
   <si>
-    <t>qqp-l15-wr2-fw1-epoch12</t>
-  </si>
-  <si>
-    <t>qqp-l20-wr2-fw1-epoch12</t>
-  </si>
-  <si>
-    <t>qqp-l5-wr2-fw1-epoch12-teach09 (epoch 3)</t>
-  </si>
-  <si>
-    <t>qqp-l5-wr2-fw1-epoch12-teach09 (epoch 4)</t>
-  </si>
-  <si>
-    <t>qqp-l5-wr2-fw1-epoch12-teach09 (epoch 7)</t>
-  </si>
-  <si>
-    <t>qqp-l5-wr2-fw1-epoch12-teach09</t>
-  </si>
-  <si>
-    <t>qqp-l10-wr2-fw1-epoch12-teach09</t>
-  </si>
-  <si>
-    <t>qqp-l15-wr2-fw1-epoch12-teach09 (epoch 11)</t>
-  </si>
-  <si>
-    <t>qqp-l15-wr2-fw1-epoch12-teach09 (epoch 12)</t>
-  </si>
-  <si>
     <t>nnz_perc</t>
   </si>
   <si>
@@ -148,7 +157,25 @@
     <t>sst2-l10-wr2-fw1-epoch18 (epoch 16)</t>
   </si>
   <si>
-    <t>sst2-l5-wr2-fw1-epoch18-teach09 (epoch 6)</t>
+    <t>sst2-l1-wr2-fw1-epoch10-teach09 (epoch 4)</t>
+  </si>
+  <si>
+    <t>sst2-l2-wr2-fw1-epoch10-teach09 (epoch 4)</t>
+  </si>
+  <si>
+    <t>sst2-l3-wr2-fw1-epoch10-teach09 (epoch 4)</t>
+  </si>
+  <si>
+    <t>sst2-l1-wr2-fw1-epoch10-teach09 (epoch 10)</t>
+  </si>
+  <si>
+    <t>sst2-l2-wr2-fw1-epoch10-teach09 (epoch 9)</t>
+  </si>
+  <si>
+    <t>sst2-l3-wr2-fw1-epoch10-teach09 (epoch 8)</t>
+  </si>
+  <si>
+    <t>sst2-l3-wr2-fw1-epoch10-teach09</t>
   </si>
   <si>
     <t>sst2-l5-wr2-fw1-epoch18-teach09 (epoch 8)</t>
@@ -173,6 +200,9 @@
   </si>
   <si>
     <t>65.99 %</t>
+  </si>
+  <si>
+    <t>88.84 %</t>
   </si>
   <si>
     <t>sst2-l5-wr2-fw1-epoch18 (epoch 16)</t>
@@ -185,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -196,15 +226,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -213,7 +240,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +289,12 @@
         <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor rgb="FF741B47"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -269,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -285,13 +318,13 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -300,11 +333,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -312,64 +342,57 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -378,14 +401,17 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -637,382 +663,436 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11">
         <v>1.0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1.0</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14">
         <v>0.6057</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="14">
         <v>0.282</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>0.2498</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>0.2004</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>0.1185</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="L3" s="14">
         <v>0.0662</v>
       </c>
-      <c r="N3" s="15">
+      <c r="M3" s="14">
         <v>0.048</v>
       </c>
-      <c r="P3" s="18">
-        <v>0.7103</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0.4895</v>
-      </c>
-      <c r="R3" s="19">
+      <c r="P3" s="16">
+        <v>0.8803</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0.7666</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0.6702</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0.496</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="U3" s="16">
         <v>0.2427</v>
       </c>
-      <c r="S3" s="18">
+      <c r="V3" s="17">
         <v>0.1822</v>
       </c>
-      <c r="T3" s="20">
+      <c r="W3" s="17">
         <v>0.1132</v>
       </c>
-      <c r="U3" s="21">
+      <c r="X3" s="17">
         <v>0.0844</v>
       </c>
-      <c r="V3" s="21">
+      <c r="Y3" s="19">
         <v>0.0834</v>
       </c>
+      <c r="Z3" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
         <v>84.31</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>88.12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>88.04</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>88.13</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>87.16</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>87.17</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>87.0</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>87.02</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>86.27</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="23">
+        <v>85.94</v>
+      </c>
+      <c r="M4" s="13">
+        <v>85.59</v>
+      </c>
+      <c r="P4" s="10">
+        <v>87.65</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>87.91</v>
+      </c>
+      <c r="R4" s="24">
+        <v>87.89</v>
+      </c>
+      <c r="S4" s="24">
+        <v>88.31</v>
+      </c>
+      <c r="T4" s="24">
+        <v>87.87</v>
+      </c>
+      <c r="U4" s="4">
+        <v>87.14</v>
+      </c>
+      <c r="V4" s="24">
+        <v>87.42</v>
+      </c>
+      <c r="W4" s="24">
+        <v>86.82</v>
+      </c>
+      <c r="X4" s="25">
+        <v>86.43</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>86.38</v>
+      </c>
+      <c r="Z4" s="6">
         <v>86.15</v>
       </c>
-      <c r="M4" s="25">
-        <v>85.94</v>
-      </c>
-      <c r="N4" s="14">
-        <v>85.59</v>
-      </c>
-      <c r="P4" s="27">
-        <v>87.3</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>87.15</v>
-      </c>
-      <c r="R4" s="4">
-        <v>87.14</v>
-      </c>
-      <c r="S4" s="27">
-        <v>87.42</v>
-      </c>
-      <c r="T4" s="5">
-        <v>86.82</v>
-      </c>
-      <c r="U4" s="28">
-        <v>86.43</v>
-      </c>
-      <c r="V4" s="6">
-        <v>86.38</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="A5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
         <v>88.4</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>91.15</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>91.01</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>91.16</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>90.44</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>90.49</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>90.36</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>90.32</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>89.82</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
+        <v>89.46</v>
+      </c>
+      <c r="M5" s="23">
+        <v>89.23</v>
+      </c>
+      <c r="P5" s="10">
+        <v>90.8</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>90.97</v>
+      </c>
+      <c r="R5" s="24">
+        <v>90.95</v>
+      </c>
+      <c r="S5" s="24">
+        <v>91.31</v>
+      </c>
+      <c r="T5" s="24">
+        <v>90.97</v>
+      </c>
+      <c r="U5" s="4">
+        <v>90.41</v>
+      </c>
+      <c r="V5" s="24">
+        <v>90.62</v>
+      </c>
+      <c r="W5" s="24">
+        <v>90.15</v>
+      </c>
+      <c r="X5" s="24">
+        <v>89.8</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>89.85</v>
+      </c>
+      <c r="Z5" s="25">
         <v>89.65</v>
       </c>
-      <c r="M5" s="25">
-        <v>89.46</v>
-      </c>
-      <c r="N5" s="25">
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22">
+        <v>89.63</v>
+      </c>
+      <c r="E6" s="13">
+        <v>89.53</v>
+      </c>
+      <c r="F6" s="13">
+        <v>89.64</v>
+      </c>
+      <c r="G6" s="23">
+        <v>88.8</v>
+      </c>
+      <c r="H6" s="13">
+        <v>88.83</v>
+      </c>
+      <c r="I6" s="13">
+        <v>88.68</v>
+      </c>
+      <c r="J6" s="23">
+        <v>88.67</v>
+      </c>
+      <c r="K6" s="23">
+        <v>88.05</v>
+      </c>
+      <c r="L6" s="23">
+        <v>87.7</v>
+      </c>
+      <c r="M6" s="23">
+        <v>87.41</v>
+      </c>
+      <c r="P6" s="10">
         <v>89.23</v>
       </c>
-      <c r="P5" s="27">
-        <v>90.57</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>90.53</v>
-      </c>
-      <c r="R5" s="4">
-        <v>90.41</v>
-      </c>
-      <c r="S5" s="27">
-        <v>90.62</v>
-      </c>
-      <c r="T5" s="5">
-        <v>90.15</v>
-      </c>
-      <c r="U5" s="6">
-        <v>89.8</v>
-      </c>
-      <c r="V5" s="28">
-        <v>89.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="24">
-        <v>89.63</v>
-      </c>
-      <c r="E6" s="14">
-        <v>89.53</v>
-      </c>
-      <c r="F6" s="14">
-        <v>89.64</v>
-      </c>
-      <c r="G6" s="25">
-        <v>88.8</v>
-      </c>
-      <c r="H6" s="14">
-        <v>88.83</v>
-      </c>
-      <c r="I6" s="14">
-        <v>88.68</v>
-      </c>
-      <c r="J6" s="25">
-        <v>88.67</v>
-      </c>
-      <c r="K6" s="25">
-        <v>88.05</v>
-      </c>
-      <c r="L6" s="26">
+      <c r="Q6" s="24">
+        <v>89.44</v>
+      </c>
+      <c r="R6" s="24">
+        <v>89.42</v>
+      </c>
+      <c r="S6" s="24">
+        <v>89.81</v>
+      </c>
+      <c r="T6" s="24">
+        <v>89.42</v>
+      </c>
+      <c r="U6" s="4">
+        <v>88.77</v>
+      </c>
+      <c r="V6" s="24">
+        <v>89.02</v>
+      </c>
+      <c r="W6" s="24">
+        <v>88.48</v>
+      </c>
+      <c r="X6" s="25">
+        <v>88.12</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>88.11</v>
+      </c>
+      <c r="Z6" s="6">
         <v>87.9</v>
-      </c>
-      <c r="M6" s="25">
-        <v>87.7</v>
-      </c>
-      <c r="N6" s="25">
-        <v>87.41</v>
-      </c>
-      <c r="P6" s="27">
-        <v>88.93</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>88.84</v>
-      </c>
-      <c r="R6" s="4">
-        <v>88.77</v>
-      </c>
-      <c r="S6" s="27">
-        <v>89.02</v>
-      </c>
-      <c r="T6" s="5">
-        <v>88.48</v>
-      </c>
-      <c r="U6" s="28">
-        <v>88.12</v>
-      </c>
-      <c r="V6" s="28">
-        <v>88.11</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="E8" s="30">
-        <f t="shared" ref="E8:N8" si="1">MINUS(E6,$C$6)</f>
+      <c r="E8" s="27">
+        <f t="shared" ref="E8:M8" si="1">MINUS(E6,$C$6)</f>
         <v>-0.1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <f t="shared" si="1"/>
         <v>-0.83</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <f t="shared" si="1"/>
         <v>-0.8</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <f t="shared" si="1"/>
         <v>-0.95</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <f t="shared" si="1"/>
         <v>-0.96</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <f t="shared" si="1"/>
         <v>-1.58</v>
       </c>
-      <c r="L8" s="30">
-        <f t="shared" si="1"/>
-        <v>-1.73</v>
-      </c>
-      <c r="M8" s="30">
+      <c r="L8" s="27">
         <f t="shared" si="1"/>
         <v>-1.93</v>
       </c>
-      <c r="N8" s="30">
+      <c r="M8" s="27">
         <f t="shared" si="1"/>
         <v>-2.22</v>
       </c>
-      <c r="P8" s="30">
-        <f t="shared" ref="P8:V8" si="2">MINUS(P6,$C$6)</f>
-        <v>-0.7</v>
-      </c>
-      <c r="Q8" s="30">
+      <c r="P8" s="27">
+        <f t="shared" ref="P8:Z8" si="2">MINUS(P6,$C$6)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Q8" s="27">
         <f t="shared" si="2"/>
-        <v>-0.79</v>
-      </c>
-      <c r="R8" s="30">
+        <v>-0.19</v>
+      </c>
+      <c r="R8" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.21</v>
+      </c>
+      <c r="S8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.21</v>
+      </c>
+      <c r="U8" s="27">
         <f t="shared" si="2"/>
         <v>-0.86</v>
       </c>
-      <c r="S8" s="30">
+      <c r="V8" s="27">
         <f t="shared" si="2"/>
         <v>-0.61</v>
       </c>
-      <c r="T8" s="30">
+      <c r="W8" s="27">
         <f t="shared" si="2"/>
         <v>-1.15</v>
       </c>
-      <c r="U8" s="30">
+      <c r="X8" s="27">
         <f t="shared" si="2"/>
         <v>-1.51</v>
       </c>
-      <c r="V8" s="30">
+      <c r="Y8" s="27">
         <f t="shared" si="2"/>
         <v>-1.52</v>
       </c>
+      <c r="Z8" s="27">
+        <f t="shared" si="2"/>
+        <v>-1.73</v>
+      </c>
     </row>
     <row r="9">
-      <c r="F9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10">
       <c r="G10" s="5"/>
@@ -1020,17 +1100,17 @@
       <c r="K10" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>30</v>
+      <c r="A14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="R14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1040,321 +1120,388 @@
         <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="I15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="J15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="K15" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="L15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="O15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="P15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="Q15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="S15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="X15" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="12">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11">
         <v>1.0</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="30">
         <v>1.0</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>1.0</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="37">
+      <c r="F16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="33">
         <v>0.8422</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>0.8277</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>0.6301</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="J16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="14">
         <v>0.4999</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>0.2153</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>0.172</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>0.1219</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="14">
         <v>0.0865</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="14">
         <v>0.0701</v>
       </c>
-      <c r="R16" s="19">
-        <v>0.6687</v>
-      </c>
-      <c r="S16" s="18">
-        <v>0.5034</v>
-      </c>
-      <c r="T16" s="19">
+      <c r="Q16" s="19">
+        <v>0.9688</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="17">
+        <v>0.8228</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0.6679</v>
+      </c>
+      <c r="U16" s="17">
+        <v>0.4891</v>
+      </c>
+      <c r="V16" s="36">
+        <v>0.4099</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0.3784</v>
+      </c>
+      <c r="X16" s="36">
         <v>0.3135</v>
       </c>
-      <c r="U16" s="19">
+      <c r="Y16" s="17">
         <v>0.2157</v>
       </c>
-      <c r="V16" s="18">
+      <c r="Z16" s="19">
         <v>0.1372</v>
       </c>
-      <c r="W16" s="18">
+      <c r="AA16" s="19">
         <v>0.1009</v>
       </c>
-      <c r="X16" s="21">
+      <c r="AB16" s="19">
         <v>0.0854</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="AC16" s="19">
         <v>0.0589</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="A17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
         <v>91.74</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>92.66</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>92.66</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="32">
         <v>92.78</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <v>92.55</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>92.2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>91.74</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="5">
         <v>91.4</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>90.71</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>89.79</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>89.11</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>88.42</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="13">
         <v>86.81</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>86.47</v>
       </c>
+      <c r="Q17" s="6">
+        <v>93.12</v>
+      </c>
       <c r="R17" s="10">
+        <v>92.78</v>
+      </c>
+      <c r="S17" s="25">
+        <v>93.23</v>
+      </c>
+      <c r="T17" s="24">
+        <v>92.66</v>
+      </c>
+      <c r="U17" s="24">
+        <v>91.97</v>
+      </c>
+      <c r="V17" s="5">
         <v>91.63</v>
       </c>
-      <c r="S17" s="27">
-        <v>91.86</v>
-      </c>
-      <c r="T17" s="10">
+      <c r="W17" s="5">
+        <v>91.17</v>
+      </c>
+      <c r="X17" s="5">
         <v>90.25</v>
       </c>
-      <c r="U17" s="10">
+      <c r="Y17" s="24">
         <v>90.6</v>
       </c>
-      <c r="V17" s="27">
+      <c r="Z17" s="6">
         <v>90.37</v>
       </c>
-      <c r="W17" s="27">
+      <c r="AA17" s="6">
         <v>89.68</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AB17" s="6">
         <v>88.42</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="AC17" s="6">
         <v>87.96</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="30">
-        <f t="shared" ref="E19:P19" si="3">MINUS(E17,$C$17)</f>
+      <c r="E19" s="27">
+        <f t="shared" ref="E19:AC19" si="3">MINUS(E17,$C$17)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="27">
         <f t="shared" si="3"/>
         <v>-0.11</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="27">
         <f t="shared" si="3"/>
         <v>-0.46</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="27">
         <f t="shared" si="3"/>
         <v>-0.92</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="37">
         <f t="shared" si="3"/>
         <v>-1.26</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="27">
         <f t="shared" si="3"/>
         <v>-1.95</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="27">
         <f t="shared" si="3"/>
         <v>-2.87</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="27">
         <f t="shared" si="3"/>
         <v>-3.55</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="27">
         <f t="shared" si="3"/>
         <v>-4.24</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="27">
         <f t="shared" si="3"/>
         <v>-5.85</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="27">
         <f t="shared" si="3"/>
         <v>-6.19</v>
       </c>
-      <c r="R19" s="30">
-        <f t="shared" ref="R19:Y19" si="4">MINUS(R17,$C$17)</f>
+      <c r="Q19" s="27">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="R19" s="37">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="27">
+        <f t="shared" si="3"/>
+        <v>0.57</v>
+      </c>
+      <c r="T19" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="27">
+        <f t="shared" si="3"/>
+        <v>-0.69</v>
+      </c>
+      <c r="V19" s="27">
+        <f t="shared" si="3"/>
         <v>-1.03</v>
       </c>
-      <c r="S19" s="30">
-        <f t="shared" si="4"/>
-        <v>-0.8</v>
-      </c>
-      <c r="T19" s="30">
-        <f t="shared" si="4"/>
+      <c r="W19" s="27">
+        <f t="shared" si="3"/>
+        <v>-1.49</v>
+      </c>
+      <c r="X19" s="27">
+        <f t="shared" si="3"/>
         <v>-2.41</v>
       </c>
-      <c r="U19" s="30">
-        <f t="shared" si="4"/>
+      <c r="Y19" s="27">
+        <f t="shared" si="3"/>
         <v>-2.06</v>
       </c>
-      <c r="V19" s="30">
-        <f t="shared" si="4"/>
+      <c r="Z19" s="27">
+        <f t="shared" si="3"/>
         <v>-2.29</v>
       </c>
-      <c r="W19" s="30">
-        <f t="shared" si="4"/>
+      <c r="AA19" s="27">
+        <f t="shared" si="3"/>
         <v>-2.98</v>
       </c>
-      <c r="X19" s="30">
-        <f t="shared" si="4"/>
+      <c r="AB19" s="27">
+        <f t="shared" si="3"/>
         <v>-4.24</v>
       </c>
-      <c r="Y19" s="30">
-        <f t="shared" si="4"/>
+      <c r="AC19" s="27">
+        <f t="shared" si="3"/>
         <v>-4.7</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="F20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21">
-      <c r="E21" s="10"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="23">
-      <c r="E23" s="10"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24">
-      <c r="E24" s="10"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25">
-      <c r="E25" s="19"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26">
-      <c r="E26" s="10"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="U27" s="16"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="20">
+      <c r="A58" s="36">
         <v>0.1254</v>
       </c>
     </row>
@@ -1365,37 +1512,37 @@
     </row>
     <row r="96">
       <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97">
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
     </row>
     <row r="98">
-      <c r="G98" s="10"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
     </row>
     <row r="99">
-      <c r="E99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="E99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
